--- a/data/trans_dic/P54_A_6_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_6_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,17 +633,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>72,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>74,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +653,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +668,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>78,98%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>81,36%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,05; 42,75</t>
+          <t>34,01; 42,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,67; 76,89</t>
+          <t>67,2; 76,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,34; 77,75</t>
+          <t>70,79; 77,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,65; 46,84</t>
+          <t>39,69; 46,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,98; 87,57</t>
+          <t>81,67; 87,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,95; 90,36</t>
+          <t>85,19; 90,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,9; 43,53</t>
+          <t>37,89; 43,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>75,93; 81,61</t>
+          <t>75,78; 81,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,44; 83,65</t>
+          <t>79,16; 83,46</t>
         </is>
       </c>
     </row>
@@ -747,12 +748,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>74,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,97%</t>
+          <t>79,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -762,27 +763,27 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,74%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>83,7%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,87; 41,84</t>
+          <t>32,78; 42,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,94; 77,56</t>
+          <t>69,26; 78,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,76; 83,76</t>
+          <t>75,85; 83,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,47; 49,5</t>
+          <t>40,26; 48,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,86; 87,41</t>
+          <t>80,58; 87,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,62; 90,47</t>
+          <t>84,47; 90,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,13; 44,19</t>
+          <t>37,95; 44,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,19; 81,67</t>
+          <t>75,93; 81,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,64; 86,27</t>
+          <t>81,24; 86,01</t>
         </is>
       </c>
     </row>
@@ -852,17 +853,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72,68%</t>
+          <t>76,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -872,27 +873,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>79,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>85,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>77,16%</t>
+          <t>77,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>82,13%</t>
+          <t>82,11%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,02; 37,99</t>
+          <t>16,51; 37,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,67; 81,8</t>
+          <t>68,1; 83,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,61; 85,26</t>
+          <t>72,25; 85,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,5; 48,9</t>
+          <t>32,64; 48,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>74,06; 88,31</t>
+          <t>71,5; 86,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,79; 90,03</t>
+          <t>79,11; 90,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,72; 40,3</t>
+          <t>26,4; 39,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,34; 82,68</t>
+          <t>71,75; 82,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>76,97; 86,03</t>
+          <t>76,89; 86,45</t>
         </is>
       </c>
     </row>
@@ -967,12 +968,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,11%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -982,12 +983,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -997,12 +998,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>78,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>82,36%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,35; 39,92</t>
+          <t>33,36; 39,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,13; 75,86</t>
+          <t>70,45; 76,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,57; 79,42</t>
+          <t>74,35; 79,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,86; 46,2</t>
+          <t>40,83; 46,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,4; 86,4</t>
+          <t>81,61; 85,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,89; 89,37</t>
+          <t>85,65; 89,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,86; 41,97</t>
+          <t>38,01; 42,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>76,54; 80,61</t>
+          <t>76,9; 80,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,07; 84,04</t>
+          <t>80,84; 83,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>420.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>492.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>575.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>723.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>553.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>995.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1215.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>599861</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1161824</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1195811</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>703859</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1496534</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1565071</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1303720</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2658358</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2760883</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>534322; 664023</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1082708; 1228645</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1142313; 1252502</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>644355; 760883</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1446959; 1547058</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1516326; 1605948</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1210317; 1403481</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2563453; 2742649</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2686270; 2832141</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>406.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>763.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>957.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>484554</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1000278</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1067857</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>558269</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1128644</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1177600</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1042823</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2128922</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2245457</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>425423; 553422</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>931393; 1056394</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1016381; 1117695</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>502157; 608977</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1081984; 1172289</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1134078; 1209967</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>965828; 1126726</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2040660; 2200602</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2179464; 2307343</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>90267</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>318917</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>322463</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>141571</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>310147</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>329709</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>231837</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>629064</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>652172</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>59687; 136412</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>284934; 351114</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>294094; 348855</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>115489; 170539</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>278102; 335764</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>306338; 350466</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>188869; 280995</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>579241; 668049</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>610684; 686656</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>851.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1009.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>628.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1102.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1414.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1083.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1953.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2423.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1174681</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2481018</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2586132</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1403698</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2935325</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3072379</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2578380</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5416344</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5658511</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1077791; 1290481</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2377322; 2583365</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2498706; 2666110</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1316540; 1494020</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2859116; 3006886</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3006159; 3125669</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2453318; 2713793</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5288859; 5545144</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5554009; 5745101</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>